--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cressanda Solution Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cressanda Solution Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -564,37 +564,37 @@
         <v>0.01</v>
       </c>
       <c r="C2">
-        <v>14.15333333333333</v>
+        <v>14.15</v>
       </c>
       <c r="D2">
-        <v>0.9669565217391304</v>
+        <v>0.97</v>
       </c>
       <c r="E2">
-        <v>0.4133333333333333</v>
+        <v>0.41</v>
       </c>
       <c r="F2">
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>-0.3895454545454546</v>
+        <v>-0.39</v>
       </c>
       <c r="H2">
-        <v>0.6311764705882353</v>
+        <v>0.63</v>
       </c>
       <c r="I2">
-        <v>0.1009523809523808</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0.08809523809523807</v>
+        <v>0.09</v>
       </c>
       <c r="K2">
-        <v>0.07409090909090897</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L2">
-        <v>-0.04136363636363637</v>
+        <v>-0.04</v>
       </c>
       <c r="M2">
-        <v>-0.05782608695652182</v>
+        <v>-0.06</v>
       </c>
       <c r="N2">
         <v>0.25</v>
@@ -603,10 +603,10 @@
         <v>0.02</v>
       </c>
       <c r="P2">
-        <v>5.332352941176471</v>
+        <v>5.33</v>
       </c>
       <c r="Q2">
-        <v>44.71529411764705</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -614,37 +614,37 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>13.265</v>
+        <v>13.26</v>
       </c>
       <c r="C3">
-        <v>14.15333333333333</v>
+        <v>14.15</v>
       </c>
       <c r="D3">
         <v>0.23</v>
       </c>
       <c r="E3">
-        <v>0.4133333333333333</v>
+        <v>0.41</v>
       </c>
       <c r="F3">
         <v>0.02</v>
       </c>
       <c r="G3">
-        <v>-0.3895454545454546</v>
+        <v>-0.39</v>
       </c>
       <c r="H3">
         <v>0.01</v>
       </c>
       <c r="I3">
-        <v>0.1009523809523808</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.08809523809523807</v>
+        <v>0.09</v>
       </c>
       <c r="K3">
-        <v>0.07409090909090897</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L3">
-        <v>-0.04136363636363637</v>
+        <v>-0.04</v>
       </c>
       <c r="M3">
         <v>-0.49</v>
@@ -1056,7 +1056,7 @@
         <v>0.33</v>
       </c>
       <c r="H11">
-        <v>0.6311764705882353</v>
+        <v>0.63</v>
       </c>
       <c r="I11">
         <v>0.33</v>
@@ -1144,10 +1144,10 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>13.265</v>
+        <v>13.26</v>
       </c>
       <c r="C13">
-        <v>14.15333333333333</v>
+        <v>14.15</v>
       </c>
       <c r="D13">
         <v>0.03</v>
@@ -1197,16 +1197,16 @@
         <v>29</v>
       </c>
       <c r="B14">
-        <v>13.265</v>
+        <v>13.26</v>
       </c>
       <c r="C14">
-        <v>14.15333333333333</v>
+        <v>14.15</v>
       </c>
       <c r="D14">
-        <v>0.9669565217391304</v>
+        <v>0.97</v>
       </c>
       <c r="E14">
-        <v>0.4133333333333333</v>
+        <v>0.41</v>
       </c>
       <c r="F14">
         <v>0.1</v>
@@ -1215,7 +1215,7 @@
         <v>-0.14</v>
       </c>
       <c r="H14">
-        <v>0.6311764705882353</v>
+        <v>0.63</v>
       </c>
       <c r="I14">
         <v>-0.14</v>
@@ -1268,7 +1268,7 @@
         <v>0.61</v>
       </c>
       <c r="H15">
-        <v>0.6311764705882353</v>
+        <v>0.63</v>
       </c>
       <c r="I15">
         <v>0.61</v>
@@ -1321,7 +1321,7 @@
         <v>0.01</v>
       </c>
       <c r="H16">
-        <v>0.6311764705882353</v>
+        <v>0.63</v>
       </c>
       <c r="I16">
         <v>0.02</v>
@@ -1356,10 +1356,10 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>13.265</v>
+        <v>13.26</v>
       </c>
       <c r="C17">
-        <v>14.15333333333333</v>
+        <v>14.15</v>
       </c>
       <c r="D17">
         <v>0.04</v>
@@ -1409,10 +1409,10 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <v>13.265</v>
+        <v>13.26</v>
       </c>
       <c r="C18">
-        <v>14.15333333333333</v>
+        <v>14.15</v>
       </c>
       <c r="D18">
         <v>0.06</v>
@@ -1462,16 +1462,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>13.265</v>
+        <v>13.26</v>
       </c>
       <c r="C19">
-        <v>14.15333333333333</v>
+        <v>14.15</v>
       </c>
       <c r="D19">
         <v>0.04</v>
       </c>
       <c r="E19">
-        <v>0.4133333333333333</v>
+        <v>0.41</v>
       </c>
       <c r="F19">
         <v>5.12</v>
@@ -1515,16 +1515,16 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>13.265</v>
+        <v>13.26</v>
       </c>
       <c r="C20">
-        <v>14.15333333333333</v>
+        <v>14.15</v>
       </c>
       <c r="D20">
         <v>0.03</v>
       </c>
       <c r="E20">
-        <v>0.4133333333333333</v>
+        <v>0.41</v>
       </c>
       <c r="F20">
         <v>0.09</v>
@@ -1557,10 +1557,10 @@
         <v>-6.01</v>
       </c>
       <c r="P20">
-        <v>5.332352941176471</v>
+        <v>5.33</v>
       </c>
       <c r="Q20">
-        <v>44.71529411764705</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,16 +1568,16 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>13.265</v>
+        <v>13.26</v>
       </c>
       <c r="C21">
-        <v>14.15333333333333</v>
+        <v>14.15</v>
       </c>
       <c r="D21">
         <v>0.02</v>
       </c>
       <c r="E21">
-        <v>0.4133333333333333</v>
+        <v>0.41</v>
       </c>
       <c r="F21">
         <v>0.07000000000000001</v>
@@ -1586,7 +1586,7 @@
         <v>-0.09</v>
       </c>
       <c r="H21">
-        <v>0.6311764705882353</v>
+        <v>0.63</v>
       </c>
       <c r="I21">
         <v>-0.09</v>
@@ -1610,10 +1610,10 @@
         <v>-6.11</v>
       </c>
       <c r="P21">
-        <v>5.332352941176471</v>
+        <v>5.33</v>
       </c>
       <c r="Q21">
-        <v>44.71529411764705</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,16 +1621,16 @@
         <v>37</v>
       </c>
       <c r="B22">
-        <v>13.265</v>
+        <v>13.26</v>
       </c>
       <c r="C22">
-        <v>14.15333333333333</v>
+        <v>14.15</v>
       </c>
       <c r="D22">
         <v>0.02</v>
       </c>
       <c r="E22">
-        <v>0.4133333333333333</v>
+        <v>0.41</v>
       </c>
       <c r="F22">
         <v>0.06</v>
@@ -1639,7 +1639,7 @@
         <v>-0.09</v>
       </c>
       <c r="H22">
-        <v>0.6311764705882353</v>
+        <v>0.63</v>
       </c>
       <c r="I22">
         <v>-0.09</v>
@@ -1663,10 +1663,10 @@
         <v>-6.19</v>
       </c>
       <c r="P22">
-        <v>5.332352941176471</v>
+        <v>5.33</v>
       </c>
       <c r="Q22">
-        <v>44.71529411764705</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,31 +1683,31 @@
         <v>0.02</v>
       </c>
       <c r="E23">
-        <v>0.4133333333333333</v>
+        <v>0.41</v>
       </c>
       <c r="F23">
         <v>0.06</v>
       </c>
       <c r="G23">
-        <v>-0.3895454545454546</v>
+        <v>-0.39</v>
       </c>
       <c r="H23">
-        <v>0.6311764705882353</v>
+        <v>0.63</v>
       </c>
       <c r="I23">
-        <v>0.1009523809523808</v>
+        <v>0.1</v>
       </c>
       <c r="J23">
-        <v>0.08809523809523807</v>
+        <v>0.09</v>
       </c>
       <c r="K23">
-        <v>0.07409090909090897</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L23">
-        <v>-0.04136363636363637</v>
+        <v>-0.04</v>
       </c>
       <c r="M23">
-        <v>-0.05782608695652182</v>
+        <v>-0.06</v>
       </c>
       <c r="N23">
         <v>30.36</v>
@@ -1716,10 +1716,10 @@
         <v>-6.19</v>
       </c>
       <c r="P23">
-        <v>5.332352941176471</v>
+        <v>5.33</v>
       </c>
       <c r="Q23">
-        <v>44.71529411764705</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,7 +1736,7 @@
         <v>0.04</v>
       </c>
       <c r="E24">
-        <v>0.4133333333333333</v>
+        <v>0.41</v>
       </c>
       <c r="F24">
         <v>0.21</v>
@@ -1748,10 +1748,10 @@
         <v>0.06</v>
       </c>
       <c r="I24">
-        <v>0.1009523809523808</v>
+        <v>0.1</v>
       </c>
       <c r="J24">
-        <v>0.08809523809523807</v>
+        <v>0.09</v>
       </c>
       <c r="K24">
         <v>0.27</v>
@@ -1769,10 +1769,10 @@
         <v>-5.92</v>
       </c>
       <c r="P24">
-        <v>5.332352941176471</v>
+        <v>5.33</v>
       </c>
       <c r="Q24">
-        <v>44.71529411764705</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1789,7 +1789,7 @@
         <v>0.3</v>
       </c>
       <c r="E25">
-        <v>0.4133333333333333</v>
+        <v>0.41</v>
       </c>
       <c r="F25">
         <v>1.49</v>
@@ -1822,10 +1822,10 @@
         <v>56.39</v>
       </c>
       <c r="P25">
-        <v>5.332352941176471</v>
+        <v>5.33</v>
       </c>
       <c r="Q25">
-        <v>44.71529411764705</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1875,10 +1875,10 @@
         <v>104.43</v>
       </c>
       <c r="P26">
-        <v>5.332352941176471</v>
+        <v>5.33</v>
       </c>
       <c r="Q26">
-        <v>44.71529411764705</v>
+        <v>44.72</v>
       </c>
     </row>
   </sheetData>
